--- a/aka-Tolob-files/структура..xlsx
+++ b/aka-Tolob-files/структура..xlsx
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
@@ -904,7 +904,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="7"/>
@@ -956,7 +956,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="7"/>
@@ -1002,7 +1002,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="14" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="7"/>

--- a/aka-Tolob-files/структура..xlsx
+++ b/aka-Tolob-files/структура..xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55941BFB-DC04-4490-B87C-CD2C571C2D4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Главная книга</t>
   </si>
@@ -58,6 +59,9 @@
     <t>Покупка</t>
   </si>
   <si>
+    <t>Поступление ТМЗ и услуг</t>
+  </si>
+  <si>
     <t>Доверенность</t>
   </si>
   <si>
@@ -151,50 +155,29 @@
     <t>расходы</t>
   </si>
   <si>
-    <t>показывать Бухгалтеру -&gt; принимать/одобрем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уточнить логику, верстать фронт, сделать бекенд и интегрировать </t>
-  </si>
-  <si>
-    <t>сделать бекенд и интегрировать</t>
-  </si>
-  <si>
-    <t>сделанно -&gt; бухгалтер должен одобрить</t>
+    <t>Анализ затрат БУ</t>
   </si>
   <si>
     <t>Место хранения</t>
   </si>
   <si>
-    <t>Поступление ТМЗ</t>
-  </si>
-  <si>
-    <t>Поступление Услуг</t>
-  </si>
-  <si>
-    <t>Анализ затрат БУ</t>
-  </si>
-  <si>
-    <t>что делать дальше:</t>
-  </si>
-  <si>
-    <t>закончу покупки и перехожу на склад;</t>
-  </si>
-  <si>
-    <t>закину на сервер бекенд, базу и фронт. После протешу чтобы всё работала нормально (особенно на фронте)</t>
-  </si>
-  <si>
-    <t>походу справочники мешаван - те тоже буду создавать</t>
-  </si>
-  <si>
-    <t>руз</t>
+    <t>Номенклатура услуг</t>
+  </si>
+  <si>
+    <t>ГОТОВЫЙ</t>
+  </si>
+  <si>
+    <t>ВИЗУАЛЬНАЯ/ФРОНТНАЯ ЧАСТЬ ГОТОВА</t>
+  </si>
+  <si>
+    <t>УЖЕ СДЕЛАННО - НО НУЖНО ПРОЙТИСЬ ОДИН РАЗ ЧТОБЫ УБЕДИТЬСЯ КОРЕКТНО ЛИ РАБОТАЕТ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,30 +236,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Roboto"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -300,13 +263,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +317,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,38 +356,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
-    <cellStyle name="Обычный 4" xfId="3"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -515,6 +476,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -550,6 +528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -725,33 +720,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="56.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="46.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="53.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="69.33203125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="3"/>
+    <col min="11" max="11" width="7.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="69.28515625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -774,9 +769,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
@@ -792,19 +787,19 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
         <v>11</v>
@@ -819,26 +814,26 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="27" t="s">
-        <v>49</v>
+      <c r="J3" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="16" t="s">
-        <v>22</v>
+      <c r="L3" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="16" t="s">
-        <v>34</v>
+      <c r="N3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15"/>
@@ -847,27 +842,27 @@
         <v>7</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="17" t="s">
-        <v>14</v>
+      <c r="H4" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="27" t="s">
-        <v>50</v>
+      <c r="J4" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="16" t="s">
-        <v>23</v>
+      <c r="L4" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="16" t="s">
-        <v>27</v>
+      <c r="N4" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -876,24 +871,25 @@
         <v>8</v>
       </c>
       <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="14" t="s">
-        <v>40</v>
+      <c r="J5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="16" t="s">
-        <v>24</v>
+      <c r="L5" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -902,25 +898,24 @@
         <v>9</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="14" t="s">
-        <v>18</v>
+      <c r="J6" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="23" t="s">
-        <v>51</v>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -931,23 +926,23 @@
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6" t="s">
-        <v>33</v>
+      <c r="J7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="6" t="s">
-        <v>25</v>
+      <c r="L7" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="23" t="s">
-        <v>48</v>
+      <c r="B8" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -956,22 +951,24 @@
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="14" t="s">
-        <v>39</v>
+      <c r="J8" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="16" t="s">
-        <v>32</v>
+      <c r="L8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -980,21 +977,23 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="14" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="6" t="s">
-        <v>28</v>
+      <c r="L9" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -1002,20 +1001,18 @@
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="16" t="s">
-        <v>29</v>
+      <c r="L10" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1034,7 +1031,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1053,7 +1050,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1068,11 +1065,11 @@
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
       <c r="N13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1087,7 +1084,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1103,17 +1100,13 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="24">
-        <v>27</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1123,7 +1116,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1132,16 +1125,16 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19" t="s">
-        <v>44</v>
-      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1150,64 +1143,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="K19" s="21"/>
-      <c r="L19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="K20" s="22"/>
-      <c r="L20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="L22" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="59.4" x14ac:dyDescent="0.4">
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="39.6" x14ac:dyDescent="0.4">
-      <c r="K25" s="3">
-        <v>3</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="K26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="K27" s="3">
-        <v>5</v>
+    <row r="19" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="24"/>
+      <c r="J19" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/aka-Tolob-files/структура..xlsx
+++ b/aka-Tolob-files/структура..xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55941BFB-DC04-4490-B87C-CD2C571C2D4D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Главная книга</t>
   </si>
@@ -89,9 +88,6 @@
     <t>Журнал ордер по счету</t>
   </si>
   <si>
-    <t>Приказы кадровые</t>
-  </si>
-  <si>
     <t>Личная карточка</t>
   </si>
   <si>
@@ -171,13 +167,28 @@
   </si>
   <si>
     <t>УЖЕ СДЕЛАННО - НО НУЖНО ПРОЙТИСЬ ОДИН РАЗ ЧТОБЫ УБЕДИТЬСЯ КОРЕКТНО ЛИ РАБОТАЕТ</t>
+  </si>
+  <si>
+    <t>Каленьдар</t>
+  </si>
+  <si>
+    <t>Приказы кадровые (приём, уволнение, перемещение)</t>
+  </si>
+  <si>
+    <t>Командировка организации</t>
+  </si>
+  <si>
+    <t>Отзыв из отпуска</t>
+  </si>
+  <si>
+    <t>Отражение в учёте</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,12 +391,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -476,23 +490,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -528,23 +525,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -720,33 +700,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="46.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="56.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="53.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="69.28515625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="11" max="11" width="7.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="53.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="69.33203125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -769,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="36.75" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
@@ -787,11 +767,11 @@
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
@@ -799,7 +779,7 @@
       </c>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:15" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="25.8">
       <c r="A3" s="4"/>
       <c r="B3" s="14" t="s">
         <v>11</v>
@@ -818,22 +798,22 @@
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="7"/>
-      <c r="L3" s="19" t="s">
-        <v>23</v>
+      <c r="L3" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="51.6">
       <c r="A4" s="4"/>
       <c r="B4" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15"/>
@@ -851,18 +831,18 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="19" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="50.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -873,23 +853,23 @@
       <c r="G5" s="7"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="6" t="s">
-        <v>34</v>
+      <c r="J5" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="19" t="s">
-        <v>25</v>
+      <c r="L5" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="25.8">
       <c r="A6" s="4"/>
       <c r="B6" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -899,12 +879,12 @@
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="18" t="s">
-        <v>40</v>
+      <c r="J6" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="19" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="6" t="s">
@@ -912,10 +892,10 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="50.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -927,11 +907,11 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="6" t="s">
@@ -939,10 +919,10 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="50.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -956,18 +936,18 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="19" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="50.25" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -981,18 +961,18 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="50.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1004,7 +984,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="7"/>
       <c r="L10" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="6" t="s">
@@ -1012,7 +992,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="50.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1024,14 +1004,16 @@
       <c r="I11" s="7"/>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="25.8">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1043,14 +1025,16 @@
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="25.8">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1062,29 +1046,35 @@
       <c r="I13" s="7"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="25.8">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1100,7 +1090,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1116,7 +1106,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="69.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1127,14 +1117,14 @@
       <c r="H17" s="4"/>
       <c r="I17" s="20"/>
       <c r="J17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="82.5" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1145,17 +1135,17 @@
       <c r="H18" s="4"/>
       <c r="I18" s="21"/>
       <c r="J18" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="83.25" customHeight="1">
       <c r="I19" s="24"/>
       <c r="J19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/aka-Tolob-files/структура..xlsx
+++ b/aka-Tolob-files/структура..xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC83FB9-8D37-45B5-AA2B-2C52AA40D6AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="2" r:id="rId1"/>
@@ -17,20 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>Главная книга</t>
   </si>
   <si>
-    <t>Шахматная ведомость</t>
-  </si>
-  <si>
     <t>Платежное поручение входящее</t>
   </si>
   <si>
-    <t>Начисление зарплаты</t>
-  </si>
-  <si>
     <t>Операции</t>
   </si>
   <si>
@@ -88,15 +83,9 @@
     <t>Журнал ордер по счету</t>
   </si>
   <si>
-    <t>Личная карточка</t>
-  </si>
-  <si>
     <t>Табель</t>
   </si>
   <si>
-    <t>Закрытие расчетного периода</t>
-  </si>
-  <si>
     <t>Финансовые отчёты</t>
   </si>
   <si>
@@ -166,9 +155,6 @@
     <t>ВИЗУАЛЬНАЯ/ФРОНТНАЯ ЧАСТЬ ГОТОВА</t>
   </si>
   <si>
-    <t>УЖЕ СДЕЛАННО - НО НУЖНО ПРОЙТИСЬ ОДИН РАЗ ЧТОБЫ УБЕДИТЬСЯ КОРЕКТНО ЛИ РАБОТАЕТ</t>
-  </si>
-  <si>
     <t>Каленьдар</t>
   </si>
   <si>
@@ -181,14 +167,44 @@
     <t>Отзыв из отпуска</t>
   </si>
   <si>
-    <t>Отражение в учёте</t>
+    <t>Компенсация отпуска</t>
+  </si>
+  <si>
+    <t>Начисление и отражение зарплаты</t>
+  </si>
+  <si>
+    <t>Карточка Счёта</t>
+  </si>
+  <si>
+    <t>Анализ Счёта</t>
+  </si>
+  <si>
+    <t>Анализ Субкунто</t>
+  </si>
+  <si>
+    <t>Ведомость амортизации ОС и НМА</t>
+  </si>
+  <si>
+    <t>НЕ ГОТОВЫЕ</t>
+  </si>
+  <si>
+    <t>Финансирование</t>
+  </si>
+  <si>
+    <t>проводки</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>да</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +268,23 @@
       <name val="Roboto"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,14 +309,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -321,6 +346,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -328,13 +366,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -376,30 +411,42 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
-    <cellStyle name="Обычный 4" xfId="3"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -490,6 +537,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -525,6 +589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -700,33 +781,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="56.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="46.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="53.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="69.33203125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="69.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -749,403 +833,537 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="25.8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="14" t="s">
+      <c r="O6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="14" t="s">
+      <c r="K8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="27" t="s">
+      <c r="K9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="51.6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="19" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="26" t="s">
+      <c r="O11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" ht="25.8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="14" t="s">
+      <c r="O12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="26"/>
+      <c r="J19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="20" spans="1:14" ht="39" x14ac:dyDescent="0.3">
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="50.25" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="25.8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="25.8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="25.8">
-      <c r="A14" s="4"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="69.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="82.5" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="83.25" customHeight="1">
-      <c r="I19" s="24"/>
-      <c r="J19" s="25" t="s">
-        <v>49</v>
+    </row>
+    <row r="21" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="20"/>
+      <c r="J21" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/aka-Tolob-files/структура..xlsx
+++ b/aka-Tolob-files/структура..xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC83FB9-8D37-45B5-AA2B-2C52AA40D6AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F619A-5FF1-4616-951C-1813915B65C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
